--- a/planilha/Investimento.xlsx
+++ b/planilha/Investimento.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,44 +459,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BRCR11</t>
+          <t>BRCO11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Logística</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>R$ 54,00</t>
+          <t>R$ 92,51</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>8,61%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HGBS11</t>
+          <t>BRCR11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Shoppings</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>R$ 179,45</t>
+          <t>R$ 54,13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -513,12 +513,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>R$ 160,19</t>
+          <t>R$ 159,42</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10,18%</t>
+          <t>10,24%</t>
         </is>
       </c>
     </row>
@@ -535,41 +535,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>R$ 108,98</t>
+          <t>R$ 109,80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HSML11</t>
+          <t>JSRE11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Shoppings</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>R$ 77,47</t>
+          <t>R$ 62,31</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>9,32%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>JSRE11</t>
+          <t>MAXR11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -579,63 +579,63 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>R$ 61,90</t>
+          <t>R$ 62,06</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>12,03%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RCRB11</t>
+          <t>RBVA11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lajes Corporativas</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>R$ 113,79</t>
+          <t>R$ 90,21</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>13,22%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RECT11</t>
+          <t>RCRB11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Híbrido</t>
+          <t>Lajes Corporativas</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>R$ 50,96</t>
+          <t>R$ 113,29</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11,78%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RELG11</t>
+          <t>RECT11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -645,100 +645,144 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>R$ 70,31</t>
+          <t>R$ 51,29</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>TEPP11</t>
+          <t>RELG11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lajes Corporativas</t>
+          <t>Híbrido</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R$ 67,12</t>
+          <t>R$ 68,38</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8,76%</t>
+          <t>13,56%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VISC11</t>
+          <t>TEPP11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Shoppings</t>
+          <t>Lajes Corporativas</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>R$ 102,18</t>
+          <t>R$ 65,20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>9,06%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XPIN11</t>
+          <t>VILG11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Logística</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>R$ 71,54</t>
+          <t>R$ 85,41</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>9,66%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>VISC11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Shoppings</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>R$ 102,97</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>XPHT11</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Hotel</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>R$ 107,39</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9,89%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>XPLG11</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Logística</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>R$ 90,50</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9,32%</t>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>R$ 95,14</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8,95%</t>
         </is>
       </c>
     </row>
